--- a/results/advinstruction_res.xlsx
+++ b/results/advinstruction_res.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14920"/>
+    <workbookView windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="model_res" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="52">
   <si>
     <t>chatglm2</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>WizardLM-13b</t>
+  </si>
+  <si>
+    <t>Wizardlm-13b</t>
+  </si>
+  <si>
+    <t>ERNIR</t>
+  </si>
+  <si>
+    <t>Koala-13b</t>
   </si>
   <si>
     <t>word change</t>
@@ -169,10 +178,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -199,45 +208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,6 +230,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -267,16 +299,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,18 +329,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,21 +341,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -344,13 +353,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,85 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,49 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,13 +479,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,6 +552,54 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,54 +636,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -640,152 +649,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,6 +803,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1114,17 +1129,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q132"/>
+  <dimension ref="A1:R132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="19.5480769230769" customWidth="1"/>
     <col min="6" max="6" width="28.3653846153846" customWidth="1"/>
-    <col min="7" max="17" width="12.9230769230769"/>
+    <col min="7" max="18" width="12.9230769230769"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1738,7 +1753,7 @@
         <v>0.888435214980074</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1778,8 +1793,17 @@
       <c r="O23" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1790,7 +1814,7 @@
         <v>0.893266037188721</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G24" s="1">
         <v>95.85</v>
@@ -1819,10 +1843,19 @@
       <c r="O24" s="1">
         <v>93.76</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="3">
+        <v>93.93</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>90.6</v>
+      </c>
+      <c r="R24" s="3">
+        <v>92.73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -1831,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G25" s="1">
         <v>97.58</v>
@@ -1860,10 +1893,19 @@
       <c r="O25" s="1">
         <v>92.34</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="3">
+        <v>94.17</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>88.91</v>
+      </c>
+      <c r="R25" s="3">
+        <v>93.66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -1872,7 +1914,7 @@
         <v>0.945051954220405</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G26" s="1">
         <v>97.68</v>
@@ -1901,10 +1943,19 @@
       <c r="O26" s="1">
         <v>93.28</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="3">
+        <v>95.29</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>90.59</v>
+      </c>
+      <c r="R26" s="3">
+        <v>94.13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1913,7 +1964,7 @@
         <v>0.950786829867305</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G27" s="1">
         <v>97.41</v>
@@ -1942,10 +1993,19 @@
       <c r="O27" s="1">
         <v>94.37</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" s="3">
+        <v>95</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>86.94</v>
+      </c>
+      <c r="R27" s="3">
+        <v>93.79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -1983,10 +2043,19 @@
       <c r="O28" s="1">
         <v>94.93</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="3">
+        <v>95.49</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>94.42</v>
+      </c>
+      <c r="R28" s="3">
+        <v>94.63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1995,7 +2064,7 @@
         <v>0.944683109584997</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G29" s="1">
         <v>97.6</v>
@@ -2024,10 +2093,19 @@
       <c r="O29" s="1">
         <v>94.87</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="3">
+        <v>95.19</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>93.19</v>
+      </c>
+      <c r="R29" s="3">
+        <v>94.61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -2036,7 +2114,7 @@
         <v>0.952841522203169</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G30" s="1">
         <v>97.61</v>
@@ -2065,10 +2143,19 @@
       <c r="O30" s="1">
         <v>94.46</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" s="3">
+        <v>95.39</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>86.98</v>
+      </c>
+      <c r="R30" s="3">
+        <v>94.88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -2077,7 +2164,7 @@
         <v>0.954455390356678</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G31" s="1">
         <v>97.26</v>
@@ -2106,10 +2193,19 @@
       <c r="O31" s="1">
         <v>93.65</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" s="3">
+        <v>95.04</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>89.43</v>
+      </c>
+      <c r="R31" s="3">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -2147,10 +2243,19 @@
       <c r="O32" s="1">
         <v>94.66</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32" s="3">
+        <v>95.15</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>93.55</v>
+      </c>
+      <c r="R32" s="3">
+        <v>94.66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
@@ -2159,7 +2264,7 @@
         <v>0.951417360228784</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G33" s="1">
         <v>97.68</v>
@@ -2188,10 +2293,19 @@
       <c r="O33" s="1">
         <v>94.44</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="P33" s="3">
+        <v>95.21</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>92.62</v>
+      </c>
+      <c r="R33" s="3">
+        <v>94.43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -2200,7 +2314,7 @@
         <v>0.946357268438724</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G34" s="1">
         <v>97.72</v>
@@ -2229,10 +2343,19 @@
       <c r="O34" s="1">
         <v>93.14</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34" s="3">
+        <v>95.38</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>93.66</v>
+      </c>
+      <c r="R34" s="3">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -2241,7 +2364,7 @@
         <v>0.948478544814053</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G35" s="1">
         <v>97.42</v>
@@ -2270,10 +2393,19 @@
       <c r="O35" s="1">
         <v>93.99</v>
       </c>
+      <c r="P35" s="1">
+        <v>94.99</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>95.99</v>
+      </c>
+      <c r="R35" s="3">
+        <v>94.5103636363636</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -2284,7 +2416,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -2295,7 +2427,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -2306,7 +2438,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -2317,7 +2449,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -2328,7 +2460,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -2339,7 +2471,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -2350,7 +2482,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -2361,7 +2493,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -2372,7 +2504,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
@@ -2383,7 +2515,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -2394,7 +2526,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
@@ -2405,7 +2537,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -2416,7 +2548,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -2427,7 +2559,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
@@ -2438,7 +2570,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2449,7 +2581,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
@@ -2460,7 +2592,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -2471,7 +2603,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -2482,7 +2614,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -2493,7 +2625,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
@@ -2504,7 +2636,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
@@ -2515,7 +2647,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
@@ -2526,7 +2658,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
@@ -2537,7 +2669,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -2548,7 +2680,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
@@ -2559,7 +2691,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -2570,7 +2702,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2581,7 +2713,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
@@ -2592,7 +2724,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -2603,7 +2735,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -2614,7 +2746,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -2625,7 +2757,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
@@ -2636,7 +2768,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
         <v>17</v>
@@ -2647,7 +2779,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
@@ -2658,7 +2790,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
@@ -2669,7 +2801,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -2680,7 +2812,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
@@ -2691,7 +2823,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
@@ -2702,7 +2834,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -2713,7 +2845,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
@@ -2724,7 +2856,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -2735,7 +2867,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -2746,7 +2878,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -2757,7 +2889,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
@@ -2768,7 +2900,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B81" t="s">
         <v>17</v>
@@ -2779,7 +2911,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B82" t="s">
         <v>12</v>
@@ -2790,7 +2922,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B83" t="s">
         <v>13</v>
@@ -2801,7 +2933,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B84" t="s">
         <v>14</v>
@@ -2812,7 +2944,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B85" t="s">
         <v>1</v>
@@ -2823,7 +2955,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B86" t="s">
         <v>2</v>
@@ -2834,7 +2966,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -2845,7 +2977,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
@@ -2856,7 +2988,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -2867,7 +2999,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
@@ -2878,7 +3010,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -2889,7 +3021,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
@@ -2900,7 +3032,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B93" t="s">
         <v>17</v>
@@ -2911,7 +3043,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B94" t="s">
         <v>12</v>
@@ -2922,7 +3054,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B95" t="s">
         <v>13</v>
@@ -2933,7 +3065,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
@@ -2944,7 +3076,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B97" t="s">
         <v>1</v>
@@ -2955,7 +3087,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B98" t="s">
         <v>2</v>
@@ -2966,7 +3098,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -2977,7 +3109,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B100" t="s">
         <v>4</v>
@@ -2988,7 +3120,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -2999,7 +3131,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -3010,7 +3142,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -3021,7 +3153,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
@@ -3032,7 +3164,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B105" t="s">
         <v>17</v>
@@ -3043,7 +3175,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B106" t="s">
         <v>12</v>
@@ -3054,7 +3186,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B107" t="s">
         <v>13</v>
@@ -3065,7 +3197,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B108" t="s">
         <v>14</v>
@@ -3076,7 +3208,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B109" t="s">
         <v>1</v>
@@ -3087,7 +3219,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B110" t="s">
         <v>2</v>
@@ -3098,7 +3230,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
@@ -3109,7 +3241,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
@@ -3120,7 +3252,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -3131,7 +3263,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -3142,7 +3274,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -3153,7 +3285,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B116" t="s">
         <v>15</v>
@@ -3164,7 +3296,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B117" t="s">
         <v>17</v>
@@ -3175,7 +3307,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B118" t="s">
         <v>12</v>
@@ -3186,7 +3318,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B119" t="s">
         <v>13</v>
@@ -3197,7 +3329,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B120" t="s">
         <v>14</v>
@@ -3208,7 +3340,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B121" t="s">
         <v>1</v>
@@ -3219,7 +3351,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B122" t="s">
         <v>2</v>
@@ -3230,7 +3362,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
@@ -3241,7 +3373,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
@@ -3252,7 +3384,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -3263,7 +3395,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -3274,7 +3406,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
@@ -3285,7 +3417,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B128" t="s">
         <v>15</v>
@@ -3296,7 +3428,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B129" t="s">
         <v>17</v>
@@ -3307,7 +3439,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
@@ -3318,7 +3450,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B131" t="s">
         <v>13</v>
@@ -3329,7 +3461,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B132" t="s">
         <v>14</v>

--- a/results/advinstruction_res.xlsx
+++ b/results/advinstruction_res.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="27100" windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="model_res" sheetId="1" r:id="rId1"/>
@@ -103,10 +103,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -139,6 +139,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -147,18 +169,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,6 +185,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -178,41 +254,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,49 +268,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -278,187 +278,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,30 +492,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +546,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -584,39 +569,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,109 +631,103 @@
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1076,13 +1076,13 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="19.5480769230769" customWidth="1"/>
-    <col min="6" max="6" width="28.3653846153846" customWidth="1"/>
+    <col min="6" max="6" width="10.0961538461538" customWidth="1"/>
     <col min="7" max="18" width="12.9230769230769"/>
   </cols>
   <sheetData>
